--- a/train_tools/answer_data_ssu2.xlsx
+++ b/train_tools/answer_data_ssu2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\train_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9552258C-0489-4F63-BB3D-C961FA9F8A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BB27D-4D6F-48B5-87FB-1C8FF92F62B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="736">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -701,14 +701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uSAINT번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usaint번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>☎ 숭실대학교 지식정보처 번호 안내드립니다
 [중앙도서관]
 → 지식정보처 : 02-820-0733
@@ -761,32 +753,6 @@
 → NHN 클라우드센터 : 02-829-8327</t>
   </si>
   <si>
-    <t>☎ 숭실대학교 지식정보처 번호 안내드립니다
-[중앙도서관]
-→ 지식정보처 : 02-820-0733
-→ 중앙도서관 : 02-820-0748
-→ 학술정보지원팀 : 02-820-0735
-[정보화센터]
-→ 정보화센터 : 02-820-0791
-→ u-SAINT 포털 운영/학부 시스템 운영 : 02-820-0795
-→ 메일 운영 : 02-820-0796
-[NHN클라우드센터]
-→ NHN 클라우드센터 : 02-829-8328</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 지식정보처 번호 안내드립니다
-[중앙도서관]
-→ 지식정보처 : 02-820-0733
-→ 중앙도서관 : 02-820-0748
-→ 학술정보지원팀 : 02-820-0735
-[정보화센터]
-→ 정보화센터 : 02-820-0791
-→ u-SAINT 포털 운영/학부 시스템 운영 : 02-820-0795
-→ 메일 운영 : 02-820-0796
-[NHN클라우드센터]
-→ NHN 클라우드센터 : 02-829-8329</t>
-  </si>
-  <si>
     <t>학사시스템운영팀번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,14 +799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SISO번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siso번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교환학생관리팀번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,18 +837,6 @@
 → 교환, 방문학생 관리 및 프로그램 운영 : 02-820-0757
 [유학생관리/지원팀]
 → 유학생관리/지원팀 : 02-820-0786</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 국제처 번호 안내입니다
-[국제교육원]
-→ 국제처 : 02-820-0776
-→ 국제교육원 : 02-828-7357
-[국제교류/유치팀]
-→ 국제교류/유치팀 : 02-820-0776
-→ 교환학생 관리 및 SISO 운영 : 02-828-7359
-→ 교환, 방문학생 관리 및 프로그램 운영 : 02-820-0757
-[유학생관리/지원팀]
-→ 유학생관리/지원팀 : 02-820-0787</t>
   </si>
   <si>
     <t>☎ 숭실대학교 국제처 번호 안내입니다
@@ -3600,10 +3546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COOPSKET위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿱스켓위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3857,16 +3799,6 @@
 → 조만식기념관 1층 : 커피앤티스토리
 → 도서관 6층 : 숭실마루
 → 웨스트민스터홀 3층 : 카페 331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ COOPSKET 장소 안내입니다 ※
-→ 형남공학관 2층 : 02-820-0899
-→ 숭덕경상관 118호 : 02-828-7447
-→ 전산관 지층 외부
-→ 학생회관 4층 : 02-828-7416
-→ 조만식기념관 2층 : 02-828-7065
-→ 신양관 1층 : 02-828-7415</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4933,6 +4865,10 @@
     <t>※ 숭실대학교 전자정보공학부 홍기훈 교수님 교수실 안내입니다 ※
 → 교수실 : 글로벌브레인홀 313-1호
 → TEL : 02-828-7156</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시소번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5334,10 +5270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L347" sqref="L347"/>
+    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A264" sqref="A264:XFD264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5371,7 +5307,7 @@
         <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -5385,7 +5321,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -5399,7 +5335,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
@@ -5413,7 +5349,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -5427,7 +5363,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
@@ -5441,7 +5377,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
@@ -5455,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -5469,7 +5405,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -5483,7 +5419,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -5497,7 +5433,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -5511,7 +5447,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -5525,7 +5461,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -5539,7 +5475,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -5553,7 +5489,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
@@ -5567,7 +5503,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -5581,7 +5517,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
@@ -6029,7 +5965,7 @@
         <v>84</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>7</v>
@@ -6043,7 +5979,7 @@
         <v>85</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>7</v>
@@ -6057,7 +5993,7 @@
         <v>86</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>7</v>
@@ -6071,7 +6007,7 @@
         <v>88</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>7</v>
@@ -6082,38 +6018,38 @@
         <v>4</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="C54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>7</v>
@@ -6124,10 +6060,10 @@
         <v>4</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>7</v>
@@ -6138,10 +6074,10 @@
         <v>4</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>7</v>
@@ -6152,10 +6088,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>101</v>
+        <v>735</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>7</v>
@@ -6166,52 +6102,52 @@
         <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>7</v>
@@ -6222,108 +6158,108 @@
         <v>4</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="374" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="C67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="C68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="374" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>7</v>
@@ -6334,10 +6270,10 @@
         <v>4</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>7</v>
@@ -6348,10 +6284,10 @@
         <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>7</v>
@@ -6362,10 +6298,10 @@
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>7</v>
@@ -6376,52 +6312,52 @@
         <v>4</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>7</v>
@@ -6432,10 +6368,10 @@
         <v>4</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>7</v>
@@ -6446,10 +6382,10 @@
         <v>4</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>7</v>
@@ -6460,10 +6396,10 @@
         <v>4</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>7</v>
@@ -6474,10 +6410,10 @@
         <v>4</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>7</v>
@@ -6488,10 +6424,10 @@
         <v>4</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>7</v>
@@ -6502,10 +6438,10 @@
         <v>4</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>7</v>
@@ -6516,10 +6452,10 @@
         <v>4</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>7</v>
@@ -6530,10 +6466,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>7</v>
@@ -6544,10 +6480,10 @@
         <v>4</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>7</v>
@@ -6558,10 +6494,10 @@
         <v>4</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>7</v>
@@ -6572,52 +6508,52 @@
         <v>4</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>7</v>
@@ -6628,10 +6564,10 @@
         <v>4</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>7</v>
@@ -6642,10 +6578,10 @@
         <v>4</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>7</v>
@@ -6656,10 +6592,10 @@
         <v>4</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>7</v>
@@ -6670,94 +6606,94 @@
         <v>4</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A97" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="C100" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A101" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>187</v>
+        <v>646</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>7</v>
@@ -6768,10 +6704,10 @@
         <v>4</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>7</v>
@@ -6782,10 +6718,10 @@
         <v>4</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>7</v>
@@ -6796,10 +6732,10 @@
         <v>4</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>655</v>
+        <v>188</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>7</v>
@@ -6810,52 +6746,52 @@
         <v>4</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>7</v>
@@ -6866,10 +6802,10 @@
         <v>4</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>7</v>
@@ -6880,10 +6816,10 @@
         <v>4</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>7</v>
@@ -6894,10 +6830,10 @@
         <v>4</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>7</v>
@@ -6908,52 +6844,52 @@
         <v>4</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>7</v>
@@ -6964,10 +6900,10 @@
         <v>4</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>7</v>
@@ -6978,10 +6914,10 @@
         <v>4</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>7</v>
@@ -6992,10 +6928,10 @@
         <v>4</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>7</v>
@@ -7006,10 +6942,10 @@
         <v>4</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>7</v>
@@ -7020,10 +6956,10 @@
         <v>4</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>7</v>
@@ -7034,10 +6970,10 @@
         <v>4</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>7</v>
@@ -7048,10 +6984,10 @@
         <v>4</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>7</v>
@@ -7062,10 +6998,10 @@
         <v>4</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>7</v>
@@ -7076,10 +7012,10 @@
         <v>4</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>7</v>
@@ -7090,10 +7026,10 @@
         <v>4</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>7</v>
@@ -7104,10 +7040,10 @@
         <v>4</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>7</v>
@@ -7118,10 +7054,10 @@
         <v>4</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>7</v>
@@ -7132,52 +7068,52 @@
         <v>4</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A131" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>7</v>
@@ -7188,10 +7124,10 @@
         <v>4</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>7</v>
@@ -7202,10 +7138,10 @@
         <v>4</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>7</v>
@@ -7216,10 +7152,10 @@
         <v>4</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>7</v>
@@ -7230,52 +7166,52 @@
         <v>4</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A137" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>7</v>
@@ -7286,10 +7222,10 @@
         <v>4</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>7</v>
@@ -7300,10 +7236,10 @@
         <v>4</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>7</v>
@@ -7314,10 +7250,10 @@
         <v>4</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>7</v>
@@ -7328,10 +7264,10 @@
         <v>4</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>7</v>
@@ -7342,10 +7278,10 @@
         <v>4</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>7</v>
@@ -7356,21 +7292,21 @@
         <v>4</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>279</v>
@@ -7379,12 +7315,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>280</v>
@@ -7393,12 +7329,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>281</v>
@@ -7412,119 +7348,119 @@
         <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="D148" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A150" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A151" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A150" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C150" s="3" t="s">
+      <c r="C151" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A152" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A151" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C151" s="3" t="s">
+      <c r="C152" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D151" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A152" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="C153" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C154" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D152" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A153" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="C155" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A154" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A155" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A156" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>304</v>
@@ -7533,12 +7469,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A157" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>305</v>
@@ -7552,10 +7488,10 @@
         <v>4</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>7</v>
@@ -7566,10 +7502,10 @@
         <v>4</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>7</v>
@@ -7580,80 +7516,80 @@
         <v>4</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A161" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A163" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A164" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D160" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A161" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C161" s="4" t="s">
+      <c r="C164" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A165" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A162" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A163" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A164" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A165" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>317</v>
+      <c r="C165" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>7</v>
@@ -7664,10 +7600,10 @@
         <v>4</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>7</v>
@@ -7678,52 +7614,52 @@
         <v>4</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A169" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>330</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>7</v>
@@ -7734,10 +7670,10 @@
         <v>4</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>7</v>
@@ -7748,10 +7684,10 @@
         <v>4</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>7</v>
@@ -7762,10 +7698,10 @@
         <v>4</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>7</v>
@@ -7776,10 +7712,10 @@
         <v>4</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>7</v>
@@ -7790,52 +7726,52 @@
         <v>4</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C175" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A176" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A177" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A176" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C176" s="4" t="s">
+      <c r="C177" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A178" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A177" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A178" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>343</v>
+      <c r="C178" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>7</v>
@@ -7843,13 +7779,13 @@
     </row>
     <row r="179" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A179" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>7</v>
@@ -7857,13 +7793,13 @@
     </row>
     <row r="180" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>7</v>
@@ -7871,13 +7807,13 @@
     </row>
     <row r="181" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A181" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="C181" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>7</v>
@@ -7885,13 +7821,13 @@
     </row>
     <row r="182" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>7</v>
@@ -7899,13 +7835,13 @@
     </row>
     <row r="183" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A183" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>7</v>
@@ -7913,13 +7849,13 @@
     </row>
     <row r="184" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>7</v>
@@ -7927,13 +7863,13 @@
     </row>
     <row r="185" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A185" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>7</v>
@@ -7941,13 +7877,13 @@
     </row>
     <row r="186" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>7</v>
@@ -7955,13 +7891,13 @@
     </row>
     <row r="187" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A187" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>7</v>
@@ -7969,13 +7905,13 @@
     </row>
     <row r="188" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>7</v>
@@ -7983,13 +7919,13 @@
     </row>
     <row r="189" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>7</v>
@@ -7997,13 +7933,13 @@
     </row>
     <row r="190" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>7</v>
@@ -8011,13 +7947,13 @@
     </row>
     <row r="191" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A191" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>7</v>
@@ -8025,13 +7961,13 @@
     </row>
     <row r="192" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>7</v>
@@ -8039,27 +7975,27 @@
     </row>
     <row r="193" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A193" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>361</v>
+        <v>632</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>7</v>
@@ -8067,13 +8003,13 @@
     </row>
     <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>7</v>
@@ -8081,27 +8017,27 @@
     </row>
     <row r="196" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>641</v>
+        <v>377</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>7</v>
@@ -8109,13 +8045,13 @@
     </row>
     <row r="198" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>7</v>
@@ -8123,13 +8059,13 @@
     </row>
     <row r="199" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>7</v>
@@ -8137,13 +8073,13 @@
     </row>
     <row r="200" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>7</v>
@@ -8151,13 +8087,13 @@
     </row>
     <row r="201" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>7</v>
@@ -8165,13 +8101,13 @@
     </row>
     <row r="202" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>7</v>
@@ -8179,13 +8115,13 @@
     </row>
     <row r="203" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>7</v>
@@ -8193,13 +8129,13 @@
     </row>
     <row r="204" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>7</v>
@@ -8207,13 +8143,13 @@
     </row>
     <row r="205" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>7</v>
@@ -8221,13 +8157,13 @@
     </row>
     <row r="206" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>7</v>
@@ -8235,13 +8171,13 @@
     </row>
     <row r="207" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>7</v>
@@ -8249,13 +8185,13 @@
     </row>
     <row r="208" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>7</v>
@@ -8263,13 +8199,13 @@
     </row>
     <row r="209" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>7</v>
@@ -8277,13 +8213,13 @@
     </row>
     <row r="210" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>7</v>
@@ -8291,13 +8227,13 @@
     </row>
     <row r="211" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>7</v>
@@ -8305,13 +8241,13 @@
     </row>
     <row r="212" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>7</v>
@@ -8319,13 +8255,13 @@
     </row>
     <row r="213" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A213" s="3" t="s">
-        <v>344</v>
+        <v>5</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>7</v>
@@ -8333,13 +8269,13 @@
     </row>
     <row r="214" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
-        <v>344</v>
+        <v>5</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>7</v>
@@ -8347,13 +8283,13 @@
     </row>
     <row r="215" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A215" s="3" t="s">
-        <v>344</v>
+        <v>5</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>7</v>
@@ -8364,10 +8300,10 @@
         <v>5</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>7</v>
@@ -8378,10 +8314,10 @@
         <v>5</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>7</v>
@@ -8392,10 +8328,10 @@
         <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>7</v>
@@ -8406,10 +8342,10 @@
         <v>5</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>7</v>
@@ -8420,10 +8356,10 @@
         <v>5</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>7</v>
@@ -8434,10 +8370,10 @@
         <v>5</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>7</v>
@@ -8448,94 +8384,94 @@
         <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A223" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A224" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A225" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A226" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A223" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B223" s="3" t="s">
+      <c r="C226" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A227" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A224" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B224" s="3" t="s">
+      <c r="C227" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A228" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A225" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A226" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A227" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A228" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B228" s="3" t="s">
-        <v>412</v>
-      </c>
       <c r="C228" s="3" t="s">
-        <v>587</v>
+        <v>455</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>7</v>
@@ -8545,11 +8481,11 @@
       <c r="A229" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>413</v>
+      <c r="B229" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>7</v>
@@ -8559,11 +8495,11 @@
       <c r="A230" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>414</v>
+      <c r="B230" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>7</v>
@@ -8573,25 +8509,25 @@
       <c r="A231" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>415</v>
+      <c r="B231" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>7</v>
@@ -8602,10 +8538,10 @@
         <v>5</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>7</v>
@@ -8616,10 +8552,10 @@
         <v>5</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>7</v>
@@ -8630,10 +8566,10 @@
         <v>5</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>7</v>
@@ -8644,10 +8580,10 @@
         <v>5</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>7</v>
@@ -8658,24 +8594,24 @@
         <v>5</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>7</v>
@@ -8686,38 +8622,38 @@
         <v>5</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A241" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>7</v>
@@ -8728,66 +8664,66 @@
         <v>5</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A243" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A244" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A245" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A246" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C243" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A244" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C244" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A245" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C245" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A246" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="C246" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>7</v>
@@ -8798,38 +8734,38 @@
         <v>5</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A249" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>7</v>
@@ -8840,38 +8776,38 @@
         <v>5</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A251" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>7</v>
@@ -8882,38 +8818,38 @@
         <v>5</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A255" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>7</v>
@@ -8924,10 +8860,10 @@
         <v>5</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>7</v>
@@ -8938,24 +8874,24 @@
         <v>5</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>7</v>
@@ -8966,10 +8902,10 @@
         <v>5</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>535</v>
+        <v>484</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>7</v>
@@ -8980,10 +8916,10 @@
         <v>5</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>7</v>
@@ -8994,150 +8930,150 @@
         <v>5</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A262" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A263" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A264" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A265" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C265" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A266" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D261" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A262" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" s="1" t="s">
+      <c r="C266" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A267" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C262" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A263" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263" s="1" t="s">
+      <c r="C267" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A268" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C263" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A264" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B264" s="1" t="s">
+      <c r="C268" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A269" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C264" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A265" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B265" s="1" t="s">
+      <c r="C269" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A270" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C265" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A266" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266" s="1" t="s">
+      <c r="C270" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A271" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C266" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A267" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C267" s="3" t="s">
+      <c r="C271" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A268" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A269" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A270" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A271" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>7</v>
@@ -9148,10 +9084,10 @@
         <v>5</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>7</v>
@@ -9162,10 +9098,10 @@
         <v>5</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>7</v>
@@ -9176,63 +9112,63 @@
         <v>5</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A275" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" ht="153" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>504</v>
+        <v>549</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" ht="153" x14ac:dyDescent="0.45">
       <c r="A277" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>505</v>
+        <v>593</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>506</v>
+        <v>550</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>556</v>
@@ -9246,192 +9182,192 @@
         <v>5</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="D279" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A280" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="289" x14ac:dyDescent="0.45">
+      <c r="A281" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A282" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A283" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A284" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="153" x14ac:dyDescent="0.45">
+      <c r="A285" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A286" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="D279" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="153" x14ac:dyDescent="0.45">
-      <c r="A280" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="153" x14ac:dyDescent="0.45">
-      <c r="A281" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A282" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C282" s="3" t="s">
+      <c r="C286" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A287" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D282" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A283" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C283" s="3" t="s">
+      <c r="C287" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A288" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="D283" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A284" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="289" x14ac:dyDescent="0.45">
-      <c r="A285" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A286" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A287" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A288" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="C288" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="153" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A289" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C290" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A291" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A292" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D290" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A291" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A292" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="C292" s="3" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>7</v>
@@ -9442,122 +9378,122 @@
         <v>5</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A294" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A295" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C293" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A294" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B294" s="1" t="s">
+      <c r="C295" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A296" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C294" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A295" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B295" s="1" t="s">
+      <c r="C296" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A297" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C295" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A296" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A297" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="C297" s="3" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>598</v>
+        <v>648</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A299" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>592</v>
+        <v>651</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A301" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>593</v>
+        <v>653</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>7</v>
@@ -9568,10 +9504,10 @@
         <v>5</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="D302" s="3" t="s">
         <v>7</v>
@@ -9582,10 +9518,10 @@
         <v>5</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>659</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>7</v>
@@ -9596,10 +9532,10 @@
         <v>5</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>661</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>7</v>
@@ -9610,10 +9546,10 @@
         <v>5</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>663</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>7</v>
@@ -9624,10 +9560,10 @@
         <v>5</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>664</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>665</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>7</v>
@@ -9638,10 +9574,10 @@
         <v>5</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>7</v>
@@ -9652,10 +9588,10 @@
         <v>5</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>7</v>
@@ -9666,10 +9602,10 @@
         <v>5</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>7</v>
@@ -9680,10 +9616,10 @@
         <v>5</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>7</v>
@@ -9694,10 +9630,10 @@
         <v>5</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>7</v>
@@ -9708,10 +9644,10 @@
         <v>5</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>7</v>
@@ -9722,10 +9658,10 @@
         <v>5</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>7</v>
@@ -9736,10 +9672,10 @@
         <v>5</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>7</v>
@@ -9750,10 +9686,10 @@
         <v>5</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>7</v>
@@ -9764,10 +9700,10 @@
         <v>5</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>7</v>
@@ -9778,10 +9714,10 @@
         <v>5</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>7</v>
@@ -9792,10 +9728,10 @@
         <v>5</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>7</v>
@@ -9806,10 +9742,10 @@
         <v>5</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>7</v>
@@ -9820,10 +9756,10 @@
         <v>5</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>7</v>
@@ -9834,10 +9770,10 @@
         <v>5</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>7</v>
@@ -9848,10 +9784,10 @@
         <v>5</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>7</v>
@@ -9862,10 +9798,10 @@
         <v>5</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>7</v>
@@ -9876,10 +9812,10 @@
         <v>5</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>7</v>
@@ -9890,10 +9826,10 @@
         <v>5</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>7</v>
@@ -9904,10 +9840,10 @@
         <v>5</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>7</v>
@@ -9918,10 +9854,10 @@
         <v>5</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>7</v>
@@ -9932,10 +9868,10 @@
         <v>5</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>7</v>
@@ -9946,10 +9882,10 @@
         <v>5</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>7</v>
@@ -9960,10 +9896,10 @@
         <v>5</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>7</v>
@@ -9974,10 +9910,10 @@
         <v>5</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>7</v>
@@ -9988,10 +9924,10 @@
         <v>5</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>7</v>
@@ -10002,10 +9938,10 @@
         <v>5</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>7</v>
@@ -10016,10 +9952,10 @@
         <v>5</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>7</v>
@@ -10030,10 +9966,10 @@
         <v>5</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>7</v>
@@ -10044,10 +9980,10 @@
         <v>5</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>7</v>
@@ -10058,10 +9994,10 @@
         <v>5</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>7</v>
@@ -10072,10 +10008,10 @@
         <v>5</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>7</v>
@@ -10086,10 +10022,10 @@
         <v>5</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>7</v>
@@ -10100,10 +10036,10 @@
         <v>5</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>740</v>
+        <v>713</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>7</v>
@@ -10114,66 +10050,66 @@
         <v>5</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>741</v>
+        <v>712</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A342" s="3" t="s">
-        <v>5</v>
+    <row r="342" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A342" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>717</v>
+        <v>598</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>742</v>
+        <v>599</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A343" s="3" t="s">
-        <v>5</v>
+    <row r="343" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A343" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>718</v>
+        <v>609</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>743</v>
+        <v>599</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A344" s="3" t="s">
-        <v>5</v>
+    <row r="344" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A344" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>719</v>
+        <v>602</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>722</v>
+        <v>599</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A345" s="3" t="s">
-        <v>5</v>
+    <row r="345" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A345" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>720</v>
+        <v>601</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>721</v>
+        <v>599</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>7</v>
@@ -10181,13 +10117,13 @@
     </row>
     <row r="346" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>7</v>
@@ -10195,94 +10131,94 @@
     </row>
     <row r="347" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A347" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A348" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A349" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A350" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A348" s="1" t="s">
+      <c r="D350" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A351" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="D351" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A352" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C348" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A349" s="1" t="s">
+      <c r="C352" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A350" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A351" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B351" s="1" t="s">
+      <c r="D352" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A353" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A352" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A353" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>613</v>
@@ -10291,43 +10227,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A354" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A355" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A355" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>619</v>
-      </c>
       <c r="C355" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A356" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>7</v>
@@ -10335,13 +10271,13 @@
     </row>
     <row r="357" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A357" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>7</v>
@@ -10349,13 +10285,13 @@
     </row>
     <row r="358" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A358" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>7</v>
@@ -10363,13 +10299,13 @@
     </row>
     <row r="359" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A359" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>7</v>
@@ -10377,153 +10313,153 @@
     </row>
     <row r="360" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A360" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A361" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A362" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A363" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A364" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A365" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C360" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A361" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A362" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B362" s="1" t="s">
+      <c r="C365" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A366" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C362" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A363" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B363" s="1" t="s">
+      <c r="C366" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C363" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A364" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A365" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A366" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B366" s="1" t="s">
+      <c r="D366" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A367" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A367" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C367" s="3" t="s">
-        <v>632</v>
+      <c r="C367" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="1" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C368" s="3" t="s">
-        <v>632</v>
+      <c r="C368" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="1" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A370" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C369" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A370" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>637</v>
+      <c r="C370" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>7</v>
@@ -10531,13 +10467,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="D371" s="3" t="s">
         <v>7</v>
@@ -10545,13 +10481,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D372" s="3" t="s">
         <v>7</v>
@@ -10559,27 +10495,27 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A374" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A374" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="C374" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D374" s="3" t="s">
         <v>7</v>
@@ -10587,13 +10523,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>7</v>
@@ -10601,13 +10537,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>7</v>
@@ -10615,13 +10551,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>7</v>
@@ -10629,71 +10565,15 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A379" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A380" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A381" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A382" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D382" s="3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/train_tools/answer_data_ssu2.xlsx
+++ b/train_tools/answer_data_ssu2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\train_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6BB27D-4D6F-48B5-87FB-1C8FF92F62B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CDAED2-899B-4001-9390-54D6EDF92EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="518">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -68,26 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>글로벌선교센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교목팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발전기금팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평양숭실재건추진사업팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기획팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기획조정실번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전략사업추진팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대외협력팀번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,23 +96,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교육과정혁신센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교수학습혁신센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공학교육혁신센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교양교육연구센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국기독교문화연구원번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -164,63 +124,14 @@
 [공학교육혁신센터]
 → 공학교육혁신팀 : 02-828-7138
 [교양교육연구센터]
-→ 교양교육연구팀 : 02-828-7198</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 대학교육혁신원 번호 안내입니다
-[교육과정혁신센터]
-→ 교육과정혁신팀 : 02-828-7438
-→ 융합교육혁신팀 : 02-828-7440
-→ 교육성과연구팀 : 02-820-0772
-[교수학습혁신센터]
-→교수학습혁신팀 : 02-828-7135
-[공학교육혁신센터]
-→ 공학교육혁신팀 : 02-828-7138
-[교양교육연구센터]
-→ 교양교육연구팀 : 02-828-7199</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 대학교육혁신원 번호 안내입니다
-[교육과정혁신센터]
-→ 교육과정혁신팀 : 02-828-7438
-→ 융합교육혁신팀 : 02-828-7440
-→ 교육성과연구팀 : 02-820-0772
-[교수학습혁신센터]
-→교수학습혁신팀 : 02-828-7135
-[공학교육혁신센터]
-→ 공학교육혁신팀 : 02-828-7138
-[교양교육연구센터]
-→ 교양교육연구팀 : 02-828-7200</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 대학교육혁신원 번호 안내입니다
-[교육과정혁신센터]
-→ 교육과정혁신팀 : 02-828-7438
-→ 융합교육혁신팀 : 02-828-7440
-→ 교육성과연구팀 : 02-820-0772
-[교수학습혁신센터]
-→교수학습혁신팀 : 02-828-7135
-[공학교육혁신센터]
-→ 공학교육혁신팀 : 02-828-7138
-[교양교육연구센터]
 → 교양교육연구팀 : 02-828-7201</t>
   </si>
   <si>
-    <t>☎ 숭실대학교 한국기독교문화연구원 번호 안내입니다
-→ 한국기독교문화연구원 : 02-820-0838
-→ 한국기독교문화연구원 행정팀 : 02-820-0839</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>창업지원단번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>벤처중소기업센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌창업지원센터번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,41 +146,6 @@
 → 창업교육/지원센터 : 02-828-7480
 → 벤처중소기업센터 : 02-820-0561
 → 글로벌창업지원센터 : 02-820-0019</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 창업지원단 번호 안내입니다
-→ 창업교육/지원센터 : 02-828-7480
-→ 벤처중소기업센터 : 02-820-0561
-→ 글로벌창업지원센터 : 02-820-0020</t>
-  </si>
-  <si>
-    <t>디지털혁신인재개발원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 디지털혁신인재개발원 번호 안내입니다
-→ 디지털혁신인재개발팀 : 02-829-8323~5
-→ 디지털혁신인재개발원장 : 02-820-0907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭실평화통일연구원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기독교통일지도자훈련센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 숭실평화통일연구원 번호 안내입니다
-→ 숭실평화통일연구원 : 02-828-7081~2
-→ 기독교통일지도자훈련센터 : 02-828-7076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 숭실평화통일연구원 번호 안내입니다
-→ 숭실평화통일연구원 : 02-828-7081~2
-→ 기독교통일지도자훈련센터 : 02-828-7077</t>
   </si>
   <si>
     <t>교무처번호알려줘</t>
@@ -389,19 +265,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사회공헌센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장애학생지원센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인권팀번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,61 +342,7 @@
 [사회공헌센터]
 → 사회공헌센터 : 02-820-0801~3, 0810
 [장애학생지원센터]
-→ 장애학생지원센터 : 02-820-0066</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 학생처 번호 안내입니다
-[학생서비스팀]
-→ 학생서비스팀 : 02-820-0164,0064~0067
-→ 총학생회/산하위원회 지원 : 02-820-0161
-→ 동아리/학생증/방송국/학군단 : 02-820-0064
-→ 축구단/유고결석/캠퍼스보험 : 02-820-0162
-[장학팀]
-→ 장학팀 : 02-820-0159, 02-828-7450
-[상담/인권센터]
-→ 상담/인권센터 : 02-820-0881, 0856
-→ 상담팀 : 02-820-0881, 0856
-→ 인권팀 : 02-820-0843
-[사회공헌센터]
-→ 사회공헌센터 : 02-820-0801~3, 0810
-[장애학생지원센터]
 → 장애학생지원센터 : 02-820-0067</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 학생처 번호 안내입니다
-[학생서비스팀]
-→ 학생서비스팀 : 02-820-0164,0064~0067
-→ 총학생회/산하위원회 지원 : 02-820-0161
-→ 동아리/학생증/방송국/학군단 : 02-820-0064
-→ 축구단/유고결석/캠퍼스보험 : 02-820-0162
-[장학팀]
-→ 장학팀 : 02-820-0159, 02-828-7450
-[상담/인권센터]
-→ 상담/인권센터 : 02-820-0881, 0856
-→ 상담팀 : 02-820-0881, 0856
-→ 인권팀 : 02-820-0843
-[사회공헌센터]
-→ 사회공헌센터 : 02-820-0801~3, 0810
-[장애학생지원센터]
-→ 장애학생지원센터 : 02-820-0069</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 학생처 번호 안내입니다
-[학생서비스팀]
-→ 학생서비스팀 : 02-820-0164,0064~0067
-→ 총학생회/산하위원회 지원 : 02-820-0161
-→ 동아리/학생증/방송국/학군단 : 02-820-0064
-→ 축구단/유고결석/캠퍼스보험 : 02-820-0162
-[장학팀]
-→ 장학팀 : 02-820-0159, 02-828-7450
-[상담/인권센터]
-→ 상담/인권센터 : 02-820-0881, 0856
-→ 상담팀 : 02-820-0881, 0856
-→ 인권팀 : 02-820-0843
-[사회공헌센터]
-→ 사회공헌센터 : 02-820-0801~3, 0810
-[장애학생지원센터]
-→ 장애학생지원센터 : 02-820-0070</t>
   </si>
   <si>
     <t>☎ 숭실대학교 학생처 번호 안내입니다
@@ -667,33 +477,11 @@
 → 팀장 : 02-820-0200</t>
   </si>
   <si>
-    <t>지식정보처번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중앙도서관번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정보화센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학술정보지원팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 지식정보처 번호 안내드립니다
-[중앙도서관]
-→ 지식정보처 : 02-820-0733
-→ 중앙도서관 : 02-820-0748
-→ 학술정보지원팀 : 02-820-0735
-[정보화센터]
-→ 정보화센터 : 02-820-0791
-→ u-SAINT 포털 운영/학부 시스템 운영 : 02-820-0795
-→ 메일 운영 : 02-820-0796
-[NHN클라우드센터]
-→ NHN 클라우드센터 : 02-829-8320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -724,19 +512,6 @@
 → u-SAINT 포털 운영/학부 시스템 운영 : 02-820-0795
 → 메일 운영 : 02-820-0796
 [NHN클라우드센터]
-→ NHN 클라우드센터 : 02-829-8322</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 지식정보처 번호 안내드립니다
-[중앙도서관]
-→ 지식정보처 : 02-820-0733
-→ 중앙도서관 : 02-820-0748
-→ 학술정보지원팀 : 02-820-0735
-[정보화센터]
-→ 정보화센터 : 02-820-0791
-→ u-SAINT 포털 운영/학부 시스템 운영 : 02-820-0795
-→ 메일 운영 : 02-820-0796
-[NHN클라우드센터]
 → NHN 클라우드센터 : 02-829-8326</t>
   </si>
   <si>
@@ -770,14 +545,6 @@
 → NHN 클라우드센터 : 02-829-8331</t>
   </si>
   <si>
-    <t>국제교육원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국제교류유치팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>유학생관리지원팀번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -786,33 +553,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>☎ 숭실대학교 국제처 번호 안내입니다
-[국제교육원]
-→ 국제처 : 02-820-0776
-→ 국제교육원 : 02-828-7357
-[국제교류/유치팀]
-→ 국제교류/유치팀 : 02-820-0776
-→ 교환학생 관리 및 SISO 운영 : 02-828-7359
-→ 교환, 방문학생 관리 및 프로그램 운영 : 02-820-0757
-[유학생관리/지원팀]
-→ 유학생관리/지원팀 : 02-820-0781</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교환학생관리팀번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 국제처 번호 안내입니다
-[국제교육원]
-→ 국제처 : 02-820-0776
-→ 국제교육원 : 02-828-7357
-[국제교류/유치팀]
-→ 국제교류/유치팀 : 02-820-0776
-→ 교환학생 관리 및 SISO 운영 : 02-828-7359
-→ 교환, 방문학생 관리 및 프로그램 운영 : 02-820-0757
-[유학생관리/지원팀]
-→ 유학생관리/지원팀 : 02-820-0782</t>
   </si>
   <si>
     <t>☎ 숭실대학교 국제처 번호 안내입니다
@@ -848,54 +590,14 @@
 → 교환학생 관리 및 SISO 운영 : 02-828-7359
 → 교환, 방문학생 관리 및 프로그램 운영 : 02-820-0757
 [유학생관리/지원팀]
-→ 유학생관리/지원팀 : 02-820-0788</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 국제처 번호 안내입니다
-[국제교육원]
-→ 국제처 : 02-820-0776
-→ 국제교육원 : 02-828-7357
-[국제교류/유치팀]
-→ 국제교류/유치팀 : 02-820-0776
-→ 교환학생 관리 및 SISO 운영 : 02-828-7359
-→ 교환, 방문학생 관리 및 프로그램 운영 : 02-820-0757
-[유학생관리/지원팀]
 → 유학생관리/지원팀 : 02-820-0789</t>
   </si>
   <si>
-    <t>연구산학협력처번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연구지원팀번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술사업화센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공동기기센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입학처번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입학전략팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입학전형운영팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 연구/산학협력처 번호 안내드립니다
-→ 연구/산학협력처 : 02-828-7480
-→ 연구지원팀 : 02-828-7460
-→ 기술사업화센터 : 02-828-7430
-→ 공동기기센터 : 02-828-7296</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -904,20 +606,6 @@
 → 연구지원팀 : 02-828-7460
 → 기술사업화센터 : 02-828-7430
 → 공동기기센터 : 02-828-7298</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 연구/산학협력처 번호 안내드립니다
-→ 연구/산학협력처 : 02-828-7480
-→ 연구지원팀 : 02-828-7460
-→ 기술사업화센터 : 02-828-7430
-→ 공동기기센터 : 02-828-7300</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 연구/산학협력처 번호 안내드립니다
-→ 연구/산학협력처 : 02-828-7480
-→ 연구지원팀 : 02-828-7460
-→ 기술사업화센터 : 02-828-7430
-→ 공동기기센터 : 02-828-7302</t>
   </si>
   <si>
     <t>☎ 숭실대학교 입학처 번호 안내드립니다
@@ -929,51 +617,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>☎ 숭실대학교 입학처 번호 안내드립니다
-→ 입학전략팀 : 02-820-0050~0054
-→ 입학전형운영팀 : 02-820-0011~0012
-→ 입시홍보/전형계획 : 02-820-0049
-→ 교육훈련 : 02-828-7457
-→ 입시평가 및 선발/고교연계프로그램 운영 : 02-820-0031</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 입학처 번호 안내드립니다
-→ 입학전략팀 : 02-820-0050~0054
-→ 입학전형운영팀 : 02-820-0011~0012
-→ 입시홍보/전형계획 : 02-820-0049
-→ 교육훈련 : 02-828-7457
-→ 입시평가 및 선발/고교연계프로그램 운영 : 02-820-0032</t>
-  </si>
-  <si>
     <t>대학원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중소기업대학원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보과학대학원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회복지대학원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육대학원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기독교학대학원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영대학원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안전융합대학원번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1001,48 +645,6 @@
 →신소재공학과 : 02-820-0621</t>
   </si>
   <si>
-    <t>☎ 숭실대학교 중소기업대학원 번호 안내입니다
-→ 중소기업대학원 : 02-820-0263
-→ FAX : 02-828-7249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 정보과학대학원 번호 안내드립니다
-→ 정보과학대학원 : 02-820-0267~8
-→ FAX : 02-825-6126</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 사회복지대학원 번호 안내드립니다
-→ 사회복지대학원 : 02-820-0277~0278
-→ FAX : 02-820-0274</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 교육대학원 번호 안내드립니다
-→ 교육대학원 : 02-820-0288~9
-→ FAX : 02-820-0299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 기독교학대학원 번호 안내드립니다
-→ 기독교학대학원 : 02-820-0098~9
-→ FAX : 02-820-0094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학원 번호 안내드립니다
-→ 경영대학원 : 02-820-0344~7
-→ FAX : 02-828-7249</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 안전융합대학원 번호 안내드립니다
-→ 안전융합대학원 : 02-828-7013
-→ E-mail : saftyoffice@ssu.ac.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인문대학번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1080,10 +682,6 @@
   </si>
   <si>
     <t>사학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예술창작학부번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1262,21 +860,6 @@
 → 철학과 : 02-820-0380
 → 예술창작학부(문예창작전공) : 02-820-0043
 → 예술창작학부(영화예술전공) : 02-828-7180
-→ 스포츠학부 : 02-820-0066</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 인문대학 번호 안내입니다
-→ 인문대학 : 02-820-0303, 0304
-→ 기독교학과 : 02-820-0070
-→ 국어국문학과 : 02-820-0320
-→ 영어영문학과 : 02-820-0330
-→ 독어독문학과 : 02-820-0350
-→ 불어불문학과 : 02-820-0360
-→ 중어중문학과 : 02-820-0390
-→ 일어일문학과 : 02-820-0530
-→ 철학과 : 02-820-0380
-→ 예술창작학부(문예창작전공) : 02-820-0043
-→ 예술창작학부(영화예술전공) : 02-828-7180
 → 스포츠학부 : 02-820-0068</t>
   </si>
   <si>
@@ -1334,10 +917,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물리과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>☎ 숭실대학교 자연과학대학 번호 안내입니다
 → 자연과학대학 : 02-820-0403
 → 수학과 : 02-820-0410
@@ -1393,15 +972,6 @@
 → 의생명시스템학부 : 02-820-0456</t>
   </si>
   <si>
-    <t>☎ 숭실대학교 자연과학대학 번호 안내입니다
-→ 자연과학대학 : 02-820-0403
-→ 수학과 : 02-820-0410
-→ 물리학과 : 02-820-0402
-→ 화학과 : 02-820-0430
-→ 정보통계/보험수리학과: 02-820-0440
-→ 의생명시스템학부 : 02-820-0459</t>
-  </si>
-  <si>
     <t>법과대학번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1442,10 +1012,6 @@
   </si>
   <si>
     <t>정치외교학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정학과번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1505,16 +1071,6 @@
 → 정치외교학과 : 02-820-0520
 → 정보사회학과 : 02-820-0047
 → 언론홍보학과 : 02-820-0306
-→ 평생교육학과 : 02-820-0047</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 사회과학대학 번호 안내입니다
-→ 사회과학대학 : 02-820-0492
-→ 사회복지학부 : 02-820-0500
-→ 행정학부 : 02-820-0510
-→ 정치외교학과 : 02-820-0520
-→ 정보사회학과 : 02-820-0047
-→ 언론홍보학과 : 02-820-0306
 → 평생교육학과 : 02-820-0049</t>
   </si>
   <si>
@@ -1548,14 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통상산업학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>☎ 숭실대학교 경제통상대학 번호 안내입니다
 → 경제통상대학 : 02-820-0572
 → 경제학과 : 02-820-0550
@@ -1602,24 +1150,6 @@
 → 통상산업학과(계약학과) : 02-828-7373</t>
   </si>
   <si>
-    <t>☎ 숭실대학교 경제통상대학 번호 안내입니다
-→ 경제통상대학 : 02-820-0572
-→ 경제학과 : 02-820-0550
-→ 글로벌통상학과 : 02-820-0570
-→ 금융경제학과 : 02-828-7343
-→ 국제무역학과 02-828-7366
-→ 통상산업학과(계약학과) : 02-828-7374</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경제통상대학 번호 안내입니다
-→ 경제통상대학 : 02-820-0572
-→ 경제학과 : 02-820-0550
-→ 글로벌통상학과 : 02-820-0570
-→ 금융경제학과 : 02-828-7343
-→ 국제무역학과 02-828-7366
-→ 통상산업학과(계약학과) : 02-828-7375</t>
-  </si>
-  <si>
     <t>경영대학번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1632,55 +1162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>혁신경영학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>복지경영학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벤처경영학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영학부번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>벤처중소기업학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회계세무학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문화콘텐츠경영학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스경형학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전문경영학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금융부동산학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이노비즈니스학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트경영학과번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지경영학과번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1730,151 +1212,7 @@
 → 벤처경영학과 : 02-820-0589
 → 경영학부 : 02-820-0560,0580
 → 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~11</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~12</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~13</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~14</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
 → 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~15</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~16</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~17</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~18</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~19</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~20</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~21</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~22</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 경영대학 번호 안내입니다
-→ 경영대학 : 02-820-0543
-→ 회계학과 : 02-820-0548
-→ 금융학부 : 02-828-7385
-→ 혁신경영학과 : 02-820-7071
-→ 복지경영학과 : 02-820-7350
-→ 벤처경영학과 : 02-820-0589
-→ 경영학부 : 02-820-0560,0580
-→ 벤처중소기업학과 : 02-820-0590
-→ 회계세무학과/문화콘텐츠경영학과/서비스경영학과/전문경영학과/금융부동산학과/이노비즈니스학과/이미지경영학과 : 02-820-0344~23</t>
   </si>
   <si>
     <t>공과대학번호알려줘</t>
@@ -1984,14 +1322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전자공학전공번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT융합전공번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컴퓨터학부번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2037,24 +1367,6 @@
 → 소프트웨어학부 : 02-820-0940
 → AI융합학부 : 02-820-0950
 → 글로벌미디어학부 : 02-820-0910
-→ 미디어경영학과 : 02-820-0967</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 IT대학 번호 안내입니다
-→ 전자정보공학부 : 02-820-0919
-→ 컴퓨터학부 : 02-820-0670, 0920
-→ 소프트웨어학부 : 02-820-0940
-→ AI융합학부 : 02-820-0950
-→ 글로벌미디어학부 : 02-820-0910
-→ 미디어경영학과 : 02-820-0968</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 IT대학 번호 안내입니다
-→ 전자정보공학부 : 02-820-0919
-→ 컴퓨터학부 : 02-820-0670, 0920
-→ 소프트웨어학부 : 02-820-0940
-→ AI융합학부 : 02-820-0950
-→ 글로벌미디어학부 : 02-820-0910
 → 미디어경영학과 : 02-820-0970</t>
   </si>
   <si>
@@ -2106,10 +1418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>숭실평화통일교육센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>☎ 숭실대학교 베어드교양대학 번호 안내입니다
 → 베어드교양대학 : 02-828-7221,7222,7
 → 신입생역량강화센터 : 02-828-7468~71
@@ -2132,13 +1440,6 @@
 → 숭실평화통일교육센터 : 02-820-0727</t>
   </si>
   <si>
-    <t>☎ 숭실대학교 베어드교양대학 번호 안내입니다
-→ 베어드교양대학 : 02-828-7221,7222,7
-→ 신입생역량강화센터 : 02-828-7468~71
-→ 교양교육운영팀 : 02-828-7221,7222,7
-→ 숭실평화통일교육센터 : 02-820-0728</t>
-  </si>
-  <si>
     <t>융합특성화자유전공학부번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2161,31 +1462,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기록물관리팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학예팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신문방송국번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활관번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리운영팀번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이버교육사업단번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI융합연구원번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2193,16 +1470,6 @@
 → 한국기독교박물관 : 02-820-0752~0753
 → 학예팀, 기록물관리팀 : 02-820-0754</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 한국기독교박물관 번호 안내입니다
-→ 한국기독교박물관 : 02-820-0752~0753
-→ 학예팀, 기록물관리팀 : 02-820-0755</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 한국기독교박물관 번호 안내입니다
-→ 한국기독교박물관 : 02-820-0752~0753
-→ 학예팀, 기록물관리팀 : 02-820-0756</t>
   </si>
   <si>
     <t>☎ 숭실대학교 신문방송국 번호 안내입니다
@@ -2222,31 +1489,6 @@
   <si>
     <t>에벤에셀하우스번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 생활관 번호 안내입니다
-→ 생활기관/관리운영팀 : 02-820-0756
-→ FAX : 02-814-4069
-→ E-mail : han9476@ssu.ac.kr
-→ url : http://ssudorm.ssu.ac.kr/
-→ 레지던스홀: 02-2621~0400
-→ 에벤에셀 하우스 : 070-7163-0047
-→ 에벤에셀 별관 : 070-7163-0047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에벤에셀별관번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 생활관 번호 안내입니다
-→ 생활기관/관리운영팀 : 02-820-0756
-→ FAX : 02-814-4069
-→ E-mail : han9476@ssu.ac.kr
-→ url : http://ssudorm.ssu.ac.kr/
-→ 레지던스홀: 02-2621~0400
-→ 에벤에셀 하우스 : 070-7163-0047
-→ 에벤에셀 별관 : 070-7163-0048</t>
   </si>
   <si>
     <t>☎ 숭실대학교 생활관 번호 안내입니다
@@ -2279,55 +1521,7 @@
 → 에벤에셀 별관 : 070-7163-0053</t>
   </si>
   <si>
-    <t>☎ 숭실대학교 생활관 번호 안내입니다
-→ 생활기관/관리운영팀 : 02-820-0756
-→ FAX : 02-814-4069
-→ E-mail : han9476@ssu.ac.kr
-→ url : http://ssudorm.ssu.ac.kr/
-→ 레지던스홀: 02-2621~0400
-→ 에벤에셀 하우스 : 070-7163-0047
-→ 에벤에셀 별관 : 070-7163-0054</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 사이버교육사업단 번호 안내입니다
-→ 사이버교육사업단 : 02-820-0105
-→ 부단장 : 02-828-7117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 AI융합연구원 번호 안내입니다
-→ AI융합연구원 : 02-828-7114~5
-→ FAX : 02-828-7107
-→ AI융합연구원 행정팀 : 02-828-7480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글로벌미래교육원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평생교육센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음악교육센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭실통일리더십연수원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부설교육기관번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 부설 교육기관 번호 안내입니다
-[글로벌미래교육원]
-→ 평생교육센터 : 02-820-0280~2
-→ 음악교육센터 : 02-820-0280
-[숭실통일리더십연수원]
-→ 숭실통일리더십연수원 : 054-556-2300~1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2339,50 +1533,10 @@
 → 숭실통일리더십연수원 : 054-556-2300~2</t>
   </si>
   <si>
-    <t>☎ 숭실대학교 부설 교육기관 번호 안내입니다
-[글로벌미래교육원]
-→ 평생교육센터 : 02-820-0280~2
-→ 음악교육센터 : 02-820-0280
-[숭실통일리더십연수원]
-→ 숭실통일리더십연수원 : 054-556-2300~3</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 부설 교육기관 번호 안내입니다
-[글로벌미래교육원]
-→ 평생교육센터 : 02-820-0280~2
-→ 음악교육센터 : 02-820-0280
-[숭실통일리더십연수원]
-→ 숭실통일리더십연수원 : 054-556-2300~4</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 부설 교육기관 번호 안내입니다
-[글로벌미래교육원]
-→ 평생교육센터 : 02-820-0280~2
-→ 음악교육센터 : 02-820-0280
-[숭실통일리더십연수원]
-→ 숭실통일리더십연수원 : 054-556-2300~5</t>
-  </si>
-  <si>
-    <t>특별사업기구번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대학혁신본부번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스파르탄SW교육원번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오픈소스SW교육센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캠퍼스타운사업단번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대학일자리플러스사업단번호알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2392,22 +1546,6 @@
   </si>
   <si>
     <t>현장실습지원센터번호알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 특별사업기구 번호 안내입니다
-[대학혁신본부]
-→ 대학혁신사업추진팀 : 02-820-0632
-[스파르탄 SW교육원]
-→ 스파르탄 SW교육원 : 02-828-7122
-→ SW교육팀/오픈소스SW교육센터 : 02-828-7465
-[캠퍼스타운사업단]
-→ 캠퍼스타운사업팀 : 02-820-0561
-[대학일자리플러스사업단]
-→ 진로취업센터 : 02-820-0168
-→ 현장실습지원센터 : 02-820-0877
-[혁신융합대학사업단]
-→ 혁신융합대학사업팀 : 02-829-8226</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2438,51 +1576,6 @@
 → 진로취업센터 : 02-820-0168
 → 현장실습지원센터 : 02-820-0877
 [혁신융합대학사업단]
-→ 혁신융합대학사업팀 : 02-829-8229</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 특별사업기구 번호 안내입니다
-[대학혁신본부]
-→ 대학혁신사업추진팀 : 02-820-0632
-[스파르탄 SW교육원]
-→ 스파르탄 SW교육원 : 02-828-7122
-→ SW교육팀/오픈소스SW교육센터 : 02-828-7465
-[캠퍼스타운사업단]
-→ 캠퍼스타운사업팀 : 02-820-0561
-[대학일자리플러스사업단]
-→ 진로취업센터 : 02-820-0168
-→ 현장실습지원센터 : 02-820-0877
-[혁신융합대학사업단]
-→ 혁신융합대학사업팀 : 02-829-8231</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 특별사업기구 번호 안내입니다
-[대학혁신본부]
-→ 대학혁신사업추진팀 : 02-820-0632
-[스파르탄 SW교육원]
-→ 스파르탄 SW교육원 : 02-828-7122
-→ SW교육팀/오픈소스SW교육센터 : 02-828-7465
-[캠퍼스타운사업단]
-→ 캠퍼스타운사업팀 : 02-820-0561
-[대학일자리플러스사업단]
-→ 진로취업센터 : 02-820-0168
-→ 현장실습지원센터 : 02-820-0877
-[혁신융합대학사업단]
-→ 혁신융합대학사업팀 : 02-829-8232</t>
-  </si>
-  <si>
-    <t>☎ 숭실대학교 특별사업기구 번호 안내입니다
-[대학혁신본부]
-→ 대학혁신사업추진팀 : 02-820-0632
-[스파르탄 SW교육원]
-→ 스파르탄 SW교육원 : 02-828-7122
-→ SW교육팀/오픈소스SW교육센터 : 02-828-7465
-[캠퍼스타운사업단]
-→ 캠퍼스타운사업팀 : 02-820-0561
-[대학일자리플러스사업단]
-→ 진로취업센터 : 02-820-0168
-→ 현장실습지원센터 : 02-820-0877
-[혁신융합대학사업단]
 → 혁신융합대학사업팀 : 02-829-8234</t>
   </si>
   <si>
@@ -2566,35 +1659,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>중소기업대학원위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보과학대학원위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회복지대학원위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육대학원위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기독교학대학원위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영대학원위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평생교육원위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안전융합대학원위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2647,76 +1712,11 @@
 → TEL : 02-820-0258~10</t>
   </si>
   <si>
-    <t>※ 중소기업대학원 장소 안내입니다 ※
-→ 위치 : 웨스트민스터홀 541호
-→ TEL : 02-820-0264</t>
-  </si>
-  <si>
-    <t>※ 정보과학대학원 장소 안내입니다 ※
-→ 위치 : 웨스트민스터홀 654호
-→ TEL : 02-820-0267~9</t>
-  </si>
-  <si>
-    <t>※ 사회복지대학원 장소 안내입니다 ※
-→ 위치 : 웨스트민스터홀 435호
-→ TEL : 02-820-0277~0279</t>
-  </si>
-  <si>
-    <t>※ 교육대학원 장소 안내입니다 ※
-→ 위치 : 웨스트민스터홀 433호
-→ TEL : 02-820-0288~9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 기독교학대학 장소 안내입니다 ※
-→ 위치 : 조만식기념관 443호
-→ TEL : 02-820-0100</t>
-  </si>
-  <si>
-    <t>※ 경영대학 장소 안내입니다 ※
-→ 위치 : 조만식기념관 542호
-→ TEL : 02-828-7253~5</t>
-  </si>
-  <si>
     <t>※ 평생교육원 장소 안내입니다 ※
 → 위치 : 안익태기념관 106호
 → TEL : 02-820-0286</t>
   </si>
   <si>
-    <t>※ 안전융합대학원 장소 안내입니다 ※
-→ 위치 : 문화관 404호
-→ TEL : 02-828-7014</t>
-  </si>
-  <si>
-    <t>※ 숭실대학교 건물번호 안내입니다 ※
-→ 베어드홀 : 01
-→ 숭덕경상관 : 02
-→ 문화관 : 03
-→ 미래관 : 20
-→ 안익태기념관 : 04
-→ 형남공학관 : 05
-→ 교육관 : 06
-→ 백마관 : 07
-→ 한경직기념관 : 08
-→ 벤처중소기업센터 : 10
-→ 신양관 : 09
-→ 진리관 : 11
-→ 조만식기념관 : 12
-→ 한국기독교박물관 : 13
-→ 중앙도서관 : 14
-→ 연구관 : 15
-→ 창신관 : 16
-→ 글로벌브레인 홀 : 17
-→ 레지던스 홀 : 18
-→ 전산관 : 19
-→ 정보과학관 : 21
-→ 웨스트민스터홀 : 22
-→ 학생회관 : 23
-→ 창의관 : 24
-→ 대운동장 : 25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예산팀위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2737,18 +1737,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>교육개발센터위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교육혁신센터위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공학교육혁신센터위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학생서비스팀위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2757,10 +1749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경력개발센터위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사회공헌센터위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2785,14 +1773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연구기획팀위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구지원팀위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>창업교육지원팀위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2805,10 +1785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기술이전센터위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>국제팀위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2829,19 +1805,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한국기독교박물관위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레지던스홀위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기숙사위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숭실융합기술원위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2877,12 +1845,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 교육개발센터 장소 안내입니다 ※
-→ 위치 : 벤처중소기업센터 409호
-→ TEL : 02-820-0735</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 교육혁신센터 장소 안내입니다 ※
 → 위치 : 문화관 402호 (ACE사업추진팀), 403호 (교육혁신 및 융합교육팀)
 → TEL : 828-7438 (ACE사업추진팀), 828-7418 (교육혁신 및 융합교육팀)</t>
@@ -2892,12 +1854,6 @@
     <t>※ 학사팀 장소 안내입니다 ※
 → 위치 : 신양관 102호
 → TEL : 02-828-7406 (강의실), 02-820-0153 (증명)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 공학교육혁신센터 장소 안내입니다 ※
-→ 위치 : 형남공학관 311호
-→ TEL : 02-828-7139</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2964,56 +1920,6 @@
   </si>
   <si>
     <r>
-      <t>☎️ 숭실대학교 교목실  번호 안내입니다
-[교목실]
-→ 교목실  : 02-820-0123~5
-→ 실장  : 02-820-7200
-→ 교수  : 02-820-7044
-[학원선교팀]
-→ 학원선교팀 : 02-820-0123~5
-→ 팀장 : 02-820-0122
-[글로벌선교센터]
-→ 글로벌선교센터 : 02-820-0972
-→ 팀장 : 02-820-0126</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>☎️ 숭실대학교 교목실  번호 안내입니다
-[교목실]
-→ 교목실  : 02-820-0123~5
-→ 실장  : 02-820-7200
-→ 교수  : 02-820-7044
-[학원선교팀]
-→ 학원선교팀 : 02-820-0123~5
-→ 팀장 : 02-820-0122
-[글로벌선교센터]
-→ 글로벌선교센터 : 02-820-0972
-→ 팀장 : 02-820-0128</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>☎️ 숭실대학교 비서실 번호 안내입니다
 [비서팀]
 → 비서실 : 02-820-0116
@@ -3024,79 +1930,6 @@
 → 평양숭실재건추진단 : 02-829-8201
 → 단장 : 02-820-0115
 → 팀장 : 02-820-0312</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>☎️ 숭실대학교 비서실 번호 안내입니다
-[비서팀]
-→ 비서실 : 02-820-0116
-→ 실장 : 02-820-0115
-[발전기금팀]
-→ 발전기금팀 : 02-820-0311
-[평양숭실재건추진사업팀]
-→ 평양숭실재건추진단 : 02-829-8201
-→ 단장 : 02-820-0115
-→ 팀장 : 02-820-0313</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>☎️ 숭실대학교 비서실 번호 안내입니다
-[비서팀]
-→ 비서실 : 02-820-0116
-→ 실장 : 02-820-0115
-[발전기금팀]
-→ 발전기금팀 : 02-820-0311
-[평양숭실재건추진사업팀]
-→ 평양숭실재건추진단 : 02-829-8201
-→ 단장 : 02-820-0115
-→ 팀장 : 02-820-0314</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>☎️ 숭실대학교 기획조정실 번호 안내입니다
-[기획팀]
-→ 기획조정실 : 02-820-0131
-→ 기획팀 : 02-820-0131~0134
-→ 실장 : 02-820-0672
-→ 팀장 : 02-820-0131
-[예산팀]
-→ 예산팀 : 02-820-0138
-→ 팀장: 02-820-0136
-[평가/전략사업추진팀]
-→ 팀장 : 02-820-0140</t>
     </r>
     <r>
       <rPr>
@@ -3186,31 +2019,6 @@
   </si>
   <si>
     <r>
-      <t>☎️ 숭실대학교 기획조정실 번호 안내입니다
-[기획팀]
-→ 기획조정실 : 02-820-0131
-→ 기획팀 : 02-820-0131~0134
-→ 실장 : 02-820-0672
-→ 팀장 : 02-820-0131
-[예산팀]
-→ 예산팀 : 02-820-0138
-→ 팀장: 02-820-0136
-[평가/전략사업추진팀]
-→ 팀장 : 02-820-0144</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>☎️ 숭실대학교 대외협력실 번호 안내입니다
 [대외협력팀]
 → 대외협력실 : 02-829-8331
@@ -3288,12 +2096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 경력개발센터 장소 안내입니다 ※
-→ 위치 : 학생회관 501호
-→ TEL : 02-820-0168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 사회공헌센터 장소 안내입니다 ※
 → 위치 : 미래관 106호
 → TEL : 02-820-0809</t>
@@ -3330,18 +2132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 연구기획팀 장소 안내입니다 ※
-→ 위치 : 벤처중소기업센터 106호
-→ TEL : 02-828-7109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 연구지원팀 장소 안내입니다 ※
-→ 위치 : 벤처중소기업센터 111호
-→ TEL : 02-828-7423</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 창업교육지원팀 장소 안내입니다 ※
 → 위치 : 벤처중소기업센터 306호
 → TEL : 02-828-7480</t>
@@ -3360,12 +2150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 기술이전센터 장소 안내입니다 ※
-→ 위치 : 벤처중소기업센터 106호
-→ TEL : 02-828-7430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 국제팀 장소 안내입니다 ※
 → 위치 : 신양관 203호
 → TEL : 02-828-7241</t>
@@ -3396,12 +2180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 숭실융합기술원 장소 안내입니다 ※
-→ 위치 : 창의관 501호
-→ TEL : 02-828-7115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 학군단 장소 안내입니다 ※
 → 위치 : 교육관 204호
 → TEL : 02-820-0852</t>
@@ -3414,54 +2192,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체육관위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체력단련장위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>농구장위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전자사물함위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>증명서자동발급위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>법학열람실위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세탁실위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독서실위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3층휴식공간위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도서관휴게실위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음악감상실위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생활관휴게실위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>북카페위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3478,22 +2224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세미나룸위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A/V교육실위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP컴퓨터위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미용실위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서점위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3574,21 +2304,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스넥코너위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸드코트위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>숭실기념품점위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 체육관 장소 안내입니다 ※
-→ 위치 : 조만식기념관 101호
-→ 소개 : 실내 농구장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3598,65 +2314,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 농구장 장소 안내입니다 ※
-→ 위치 : 미래관 앞
-→ 소개 : 야외농구장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 전자사물함 장소 안내입니다 ※
 → 위치 : 학생회관
 → 소개 : 스마트카드 및 모바일 학생증을 이용하여 물품 보관, 택배화물수취, 물품전달, 개인 전자사물함 등 다양한 서비스를 제공하는 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 증명서 자동발급 장소 안내입니다 ※
-→ 위치 : 형남공학관 2층, 도서관 1층 로비
-→ 소개 : 현금결제 안됨, 신용카드 및 교통카드 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 법학열람실 장소 안내입니다 ※
 → 위치 : 진리관 4층
 → 소개 : 법학과 학생만 사용가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 세탁실 장소 안내입니다 ※
-→ 위치 : 생활관 1층
-→ 소개 : 남/여 세탁실, 24시간, 코인세탁기 및 건조기, 세제 개인 준비(매점 판매)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 독서실 장소 안내입니다 ※
-→ 위치 : 생활관 지하 1층
-→ 소개 : 24시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 3층 휴식공간 장소 안내입니다 ※
-→ 위치 : 조만식기념관 3층
-→ 소개 : 엘리베이터 앞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 도서관휴게실 장소 안내입니다 ※
 → 위치 : 도서관 지하 1층
 → 소개 : 자판기 4대 및 좌석마련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 생활관 휴게실 장소 안내입니다 ※
-→ 위치 : 생활관 1층~12층
-→ 소개 : 24시간, TV, 소파</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 음악감상실 장소 안내입니다 ※
-→ 위치 : 학생회관 224호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 북카페 장소 안내입니다 ※
 → 위치 : 학생회관 224-3호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3677,31 +2352,6 @@
     <t>※ 무인반납기 장소 안내입니다 ※
 → 위치 : 중앙도서관 1층 로비 좌측
 → 소개 : 도서관 1층 대출반납실 운영하지 않을 때 작동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 세미나룸 장소 안내입니다 ※
-→ 위치 : 중앙도서관 1층 숭실스퀘어 내
-→ 소개 : 수용인원 3~8명, 중앙도서관 모바일앱 또는 홈페이지를 통해 예약 후 이용, 1층 대출반납데스크에서 체크인/체크아웃 필수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ A/V 장소 안내입니다 ※
-→ 위치 : 중앙도서관 5층
-→ 소개 : 약 30석 규모, 세미나 및 특강 시 활용, 예약필수
-→ 문의 : 02-820-0741</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ HP컴퓨터(소모품) 장소 안내입니다 ※
-→ 위치 : 학생회관 4층
-→ TEL : 02-811-0887</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 오다헤어 장소 안내입니다 ※
-→ 위치 : 학생회관 4층
-→ TEL : 02-816-5557</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3749,15 +2399,6 @@
 → 정보과학관 1층 : 09:00~16:00, 우리은행
 → 전산관 1층 출입구 : 09:00~16:00, 우리은행
 → 조만식기념관 1층 : 07:00~23:00(일요일, 공휴일 제외), 우리은행, 신한은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 로비 PC 장소 안내입니다 ※
-→ 위치 : 형남공학관 2층 민원센터 내, 정보과학관 1층, 베어드홀 로비, 법학관 1층 로비, 조만식기념관 1층, 도서관 1층 로비 우측</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3820,15 +2461,6 @@
 → 신양관 1층 : 02-828-7417</t>
   </si>
   <si>
-    <t>기숙사편의점위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ LOG-IN 편의점 장소 안내입니다 ※
-→ 위치 : 레지던스홀 지하 1층</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 레지던스홀 기숙사 식당 장소 안내입니다 ※
 → 위치 : 레지던스홀 지하 1층</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3858,18 +2490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 스넥코너 장소 안내입니다 ※
-→ 위치 : 학생회관 3층 (200석)
-→ TEL : 02-820-0892</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 푸드코트 장소 안내입니다 ※
-→ 위치 : 학생회관 2층 (147석)
-→ TEL : 02-828-7064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>※ 숭실기념품점 장소 안내입니다 ※
 → 위치 : 문화관 1층
 → TEL : 02-3280-0776</t>
@@ -3904,68 +2524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">※ 베어드홀(01) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :
-→ 4F :
-→ 5F : </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 문화관(03) 건물 안내입니다 ※
-→ 1F :
-→ 2F :
-→ 3F :
-→ 4F :
-→ 5F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 미래관(20) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :
-→ 4F :
-→ 5F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 안익태기념관(04) 건물 안내입니다 ※
-→ 1F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 형남공학관(05) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :
-→ 4F :
-→ 5F :
-→ 6F : 
-→ 7F :
-→ 8F :
-→ 9F :
-→ 10F :
-→ 11F :
-→ 12F :
-→ 13F :
-→ 14F :
-→ 15F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 교육관(06) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>백마관위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3990,52 +2548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 백마관(07) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 한경직기념관(08) 건물 안내입니다 ※
-→ 1F :
-→ 2F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 벤처중소기업센터(10) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :
-→ 4F :
-→ 5F :
-→ 6F :
-→ 7F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 신양관(09) 건물 안내입니다 ※
-→ 1F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 진리관(11) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :
-→ 4F :
-→ 5F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 조만식기념관(12) 건물 안내입니다 ※
-→ 1F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중앙도서관위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4045,17 +2557,6 @@
   </si>
   <si>
     <t>창신관위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 한국기독교박물관 장소 안내입니다 ※
-→ 위치 : 한국기독교박물관 B110호
-→ TEL : 02-820-0754
-→ B2 :
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4091,10 +2592,6 @@
   </si>
   <si>
     <t>창의관위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대운동장위치알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4109,84 +2606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>※ 연구관(15) 건물 안내입니다 ※
-→ 1F :
-→ 2F :
-→ 3F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 창신관(16) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 전산관(19) 건물 안내입니다 ※
-→ B1 :
-→ 1F :
-→ 2F :
-→ 3F :
-→ 4F :
-→ 5F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 웨스트민스터홀(22) 건물 안내입니다 ※
-→ 1F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 창의관(24) 건물 안내입니다 ※
-→ 1F :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 대운동장(25) 건물 안내입니다 ※
-→ B1 :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 학생회관(23) 건물 안내입니다 ※
-→ B2 :
-→ B1 :
-→ 1F : 동아리방, 블루큐브
-→ 2F : 동아리방, 푸드코트
-→ 3F : 동아리방, 학생식당, 스넥코너
-→ 4F : 
-→ 5F : 보건실, 학생서비스팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경상관위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 숭덕경상관(02) 건물 안내입니다 ※
-→ B2 :
-→ B1 :
-→ 1F : 강의실, 편의점
-→ 2F : 강의실, 카페
-→ 3F : 강의실, 자습열람실, 경영/경통대 학과별 사무실
-→ 4F : 교수실
-→ 5F :교수실
-→ 6F : 교수실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※ 숭덕경상관(02) 건물 안내입니다 ※
-→ B2 :
-→ B1 :
-→ 1F : 강의실, 편의점
-→ 2F : 강의실, 카페
-→ 3F : 강의실, 자습열람실, 경영/경통대 학과별 사무실
-→ 4F : 교수실
-→ 5F :교수실
-→ 5F : 교수실</t>
-  </si>
-  <si>
     <t>※ 정보과학관(21) 건물 안내입니다 ※
 → B1 : 주차장, 소모임실, 학생회실, 미디어카페
 → 1F : 학과 사무실, 경비실, 강당, 컴퓨터실
@@ -4217,27 +2636,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년2학기드랍일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024년2학기수강신청취소일정알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2024년2학기수강신청일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년2학기개강일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>♣ 숭실대학교 2024년 10월 학사일정입니다 ♣
-→ 10/1(화)~10/30(수) : 2024학년도 2학기 휴학시 수업료 1/3 차감기간
-→ 10/10(목) : 2024학년도 개교기념일
-→ 10/23(수) : 2024학년도 2학기 수업일수 1/2선(대학원)
-→ 10/31(목)~11/29(금) : 2024학년도 2학기 휴학시 수업료 1/2 차감기간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4255,19 +2658,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년개교기념일일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년2학기채플개강일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024년2학기채플종강일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년2학기다전공신청기간일정알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4284,39 +2675,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년2학기보강일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024년2학기기말강의평가일정알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년2학기강평일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024년2학기기말고사일정알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024년2학기종강일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2024년2학기계절제일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024년겨울학기일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025년1학기복학신청기간일정알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2025년1학기휴학신청기간알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4369,10 +2736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>건물위치알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학생식당메뉴알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4381,10 +2744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레지던스홀식당메뉴알려줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>푸드코트메뉴알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4405,14 +2764,6 @@
   </si>
   <si>
     <t>오늘 아침은 "지지고" 어떠세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간식메뉴추천해줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>야식메뉴추천해줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4868,7 +3219,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시소번호알려줘</t>
+    <t>※ 미래관(20) 건물 안내입니다 ※
+→ B1 : 강의실, 숭실사이버대 입학/학생처, 사이버대 장애학생 휴게실, 총학생회, 기계실
+→ 1F : 장학팀, 용역사무실, 베어드봉사단, 사회공헌센터, 국제처장시, 강의실, 미화원 휴게실(남)
+→ 2F : 강의실, 남/여 장애인화장실
+→ 3F : 강의실
+→ 4F : 강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 한경직기념관(08) 건물 안내입니다 ※
+→ 1F : 학원선교팀, 김덕윤 예배실
+→ 2F : 법인사무국, 대예배실, 한경직목사 유물전시실, 김덕윤 사진전시실, 은혜의 샘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 형남공학관(05) 건물 안내입니다 ※
+→ B1 : 우체국, 창의공학설계실, 실험/실습 연구실, 주차장
+→ 1F : 학생회실, 강의실, 대강의실, 공대 학생회실, 매점
+→ 2F : 증명발급기, 형남홀
+→ 3F : 공대 사무실, 공대 학장실, 공과교육혁신센터, 전정공 사무실
+→ 4F : 기공 사무실, 교수연구실
+→ 5F : 연구실, 세미나실, 교수연구실
+→ 6F : 전기 사무실, 건축 사무실, 교수연구실
+→ 7F : 산업정보시스템 사무실, 교수연구실
+→ 8F : 유기신소재 파이버공학과 사무실, 교수연구실
+→ 9F : 화공 사무실, 교수연구실
+→ 10~14F : 연구실, 교수연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 숭덕경상관(02) 건물 안내입니다 ※
+→ B2 : 기계실, 창고
+→ B1 :주차장, 관리팀 창고, 재활용분리창고
+→ 1F : 강의실, 편의점, 강의실, 학생회실, 미화원휴게실, PC실습실
+→ 2F : 강의실, 카페, 스터디룸, 사무실
+→ 3F : 강의실, 자습열람실, 경영/경통대 학과별 사무실
+→ 4F : 교수실, 경제통상대학 대학원생실, 경영대학 대학원생실, 문변재, 교수회의실
+→ 5F : 교수실
+→ 6F : 교수실, 경영대학 창고, 경제통상대학 창고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 교육관(06) 건물 안내입니다 ※
+→ B1~3F : 학생군사교육단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 안익태기념관(04) 건물 안내입니다 ※
+→ B1 : 실습실, 레슨실, 강의실
+→ 1F : 레슨실, 평생교육원 음악교육센터, 회의실, 원장실, 강사실
+→ 2F : 레슨실, 주임교수레슨실, 연주실
+→ 3F : 레슨실, 주임교수레슨실, 연주실, 강의실
+→ 4F : 레슨실, 주임교수레슨실, 연주실, 강의실
+→ 5F : 옥탑층 연주실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 벤처중소기업센터(10) 건물 안내입니다 ※
+→ B1 : 곰팡이분자유전력연구실, 강의실, PC실습실, 기계실, 시스템실
+→ 1F : 산학협력진흥팀, 교육개발센터 매체제작실, 교환기계실, 화상회의실, 총무감사팀, 안내 데스크
+→ 2F : 노동조합사무실, 회의실, 창업보육실, 프로젝트홀, 멘토링
+→ 3F : 이도형계단강의실, 정보화팀사무실, 회의실, 창업보육실, 기계실
+→ 4F : 정보화팀개발실, 학교기업플렉스맥스, 행정실, 창업지원단장실, 창업교육지원팀
+→ 5F : 강의실, 창업보육실, 교수연구실, 목적공간
+→ 6F : 생명학/통계유전학 실험실, 포스트지놈정보화연구실, 데이터베이스모델링전산실습실, 교수연구실
+→ 7F : 신물질설계교육장장비지원실, 생명정보실, 의생명시스템학부 사무실, 분자설계TIC, 기기실, 교수연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 학생회관(23) 건물 안내입니다 ※
+→ B1 : 주차장, 언론홍보학과스튜디오
+→ 1F : 동아리방, 블루큐브, 총학생회실, 동아리연합회, 공연장, 생협사무실
+→ 2F : 동아리방, 푸드코트, 신문방송국, 출판국, 전시실
+→ 3F : 동아리방, 학생식당, 스넥코너캠퍼스종합개발팀, 시설팀
+→ 4F : 학생처장실, 회의실, 상담실, 학생복지위원회
+→ 5F : 보건실, 학생서비스팀, 경력개발센터, 외국인유학센터, 장학팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 조만식기념관(12) 건물 안내입니다 ※
+→ B2 : 주차장
+→ B1 : 기계실, 전기실, 주차장
+→ 1F : 체력단련장, 강의실, 스포츠학부기자재실, 미화원휴게실, 물리실험실
+→ 2F : 강의실, 물리기재실, 실험실, 매점, 여자장애인화장실
+→ 3F : 강의실, 학생회실, 사무실, 남자장애인화장실
+→ 4F : 강의실, 실험실습실, 교수협의회실, 인문대학장실, 세미나실
+→ 5F : 강의실, 세미나실, 영화예술전공사무실, 교수연구실, 경영대학원
+→ 6F : 사무실, 자료실, 세미나실, PC실습실, 교수연구실
+→ 7F : 사무실, 자료실, 교수연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 진리관(11) 건물 안내입니다 ※
+→ B1 : 학생회실
+→ 1F : 베어드교양대학 학장실, 사무실, 강의실, 법학사무실
+→ 2F : 장애학생지원센터, 관리실, 어학강의실
+→ 3F : 강의실, 법학사무소, 컴퓨터실습실
+→ 4F : 강의실, 법과대학회의실, 문예창작과 실습실, 법과대학학장실
+→ 5F : 교수연구실, 법학과사무실, 강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 웨스트민스터홀(22) 건물 안내입니다 ※
+→ 3F : 조만식기념관 연결통로
+→ 4F : 대학원 세미나실
+→ 5F : 대학원 세미나실
+→ 6F : 대학원 세미나실, 대학원 PC실습실, 임상실험실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 전산관(19) 건물 안내입니다 ※
+→ 1F : 강의실, 체육기자재실, 교수실, 경비실, 문서창고, 글로벌미래교육원 교학팀
+→ 2F : 강의실, PC실습실, 교수실
+→ 3F : 사케실습실, 강의실, 교수실, 호스피탈리티 상담실, 와인실습실
+→ 4F : 한국어, 체육실습실, 외국인학생휴게실
+→ 5F : 교수실, AI보안연구실, 전파무반사실, IT융합계약학과사무실, 강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 신양관(09) 건물 안내입니다 ※
+→ 복사/출력 (유료), 현재 공사중입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 문화관(03) 건물 안내입니다 ※
+→ 1 : 강의실, 숭실대학교 기념품샵
+→ 2~5F : 강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 백마관(07) 건물 안내입니다 ※
+→ 1~4F : 강의실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 연구관(15) 건물 안내입니다 ※
+→ 본 건물은 교수님들의 연구관으로 사용하고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 베어드홀(01) 건물 안내입니다 ※
+→ B1~5F : 실험실, 교수연구실, 자연과학대 사무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 창신관(16) 건물 안내입니다 ※
+→ B1~3F : 옛 기숙사 건물이지만 현재 사회대 건물로 이용되고 있습니다. 사회대 사무실, 강의실, 교수연구실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌브레인홀위치알려줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 글로벌브레인홀(17) 건물 안내입니다 ※
+→ B1~8F : 교수연구실, 행정연구반, 변리사반, 7급공무원반, 회계연구실, 중등임용고시반 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 창의관(24) 건물 안내입니다 ※
+→ 구 정주영창업센터로, 현재는 학교 캠퍼스 밖에 있습니다. 정보통신, 전기전자, 바이오, 기계, 화학 등 다양한 분야의 기업이 20개 입주해 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4952,7 +3467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4964,6 +3479,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5270,10 +3788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D378"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A264" sqref="A264:XFD264"/>
+    <sheetView tabSelected="1" topLeftCell="B251" zoomScale="94" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5304,10 +3822,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>418</v>
+        <v>262</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
@@ -5321,7 +3839,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>419</v>
+        <v>263</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
@@ -5335,21 +3853,21 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>420</v>
+        <v>264</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>421</v>
+        <v>265</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
@@ -5360,30 +3878,30 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="170" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>423</v>
+        <v>267</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -5391,7 +3909,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>424</v>
+        <v>268</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>7</v>
@@ -5405,13 +3923,13 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>425</v>
+        <v>269</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -5419,13 +3937,13 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>426</v>
+        <v>270</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -5433,7 +3951,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>427</v>
+        <v>271</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -5447,7 +3965,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>428</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
@@ -5461,760 +3979,760 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>430</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>431</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>433</v>
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" ht="323" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" ht="272" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="238" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="323" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="204" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="323" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="323" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="323" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="272" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="272" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="C35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="272" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="272" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="272" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="272" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="272" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" ht="374" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="272" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="238" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="238" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="238" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="204" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="204" x14ac:dyDescent="0.45">
-      <c r="A46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="204" x14ac:dyDescent="0.45">
-      <c r="A47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="C47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="C48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>735</v>
+        <v>105</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="374" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>128</v>
@@ -6223,12 +4741,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>129</v>
@@ -6237,281 +4755,281 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" ht="187" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="C80" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="C81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="C82" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="C83" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C84" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" ht="119" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>7</v>
@@ -6522,10 +5040,10 @@
         <v>4</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>7</v>
@@ -6536,10 +5054,10 @@
         <v>4</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>7</v>
@@ -6550,94 +5068,94 @@
         <v>4</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A93" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A97" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>7</v>
@@ -6648,10 +5166,10 @@
         <v>4</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>7</v>
@@ -6662,10 +5180,10 @@
         <v>4</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C99" s="3" t="s">
         <v>190</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>7</v>
@@ -6676,10 +5194,10 @@
         <v>4</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C100" s="3" t="s">
         <v>191</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>7</v>
@@ -6690,696 +5208,696 @@
         <v>4</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C101" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="C101" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="D101" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" ht="221" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A107" s="3" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C108" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A109" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A109" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B109" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A111" s="3" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="187" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A113" s="3" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A114" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A115" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A116" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A114" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="D116" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A117" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A115" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="D117" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A118" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D115" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A116" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="C118" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A119" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A117" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="C119" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A120" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A118" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="C120" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A121" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D118" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="C121" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A122" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D119" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A120" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="C122" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A123" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D120" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A121" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C121" s="3" t="s">
+      <c r="C123" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A124" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D121" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A122" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="C124" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A125" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A123" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="C125" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A126" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D123" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A124" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="C126" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A127" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A125" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="C127" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A128" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A126" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="C128" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A129" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D126" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A127" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C127" s="3" t="s">
+      <c r="C129" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A130" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="187" x14ac:dyDescent="0.45">
-      <c r="A128" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="C130" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A131" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A129" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="C131" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A132" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C132" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A133" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A134" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A135" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A136" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A137" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A138" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A139" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D129" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A130" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="C139" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D130" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A131" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="C140" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A141" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D131" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A132" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="C141" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A142" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A133" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="C142" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D133" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A134" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A135" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A136" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A137" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A138" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A139" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A140" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A141" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A142" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A143" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="C143" s="3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>265</v>
+        <v>5</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" ht="68" x14ac:dyDescent="0.45">
       <c r="A145" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>275</v>
+        <v>5</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>276</v>
+        <v>5</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A147" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>277</v>
+        <v>5</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>278</v>
+        <v>5</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A149" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>284</v>
+        <v>5</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>286</v>
+        <v>5</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>324</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>7</v>
@@ -7387,13 +5905,13 @@
     </row>
     <row r="151" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A151" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>295</v>
+        <v>5</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>7</v>
@@ -7401,13 +5919,13 @@
     </row>
     <row r="152" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>296</v>
+        <v>5</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>7</v>
@@ -7415,111 +5933,111 @@
     </row>
     <row r="153" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A153" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>297</v>
+        <v>5</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>298</v>
+        <v>5</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" ht="102" x14ac:dyDescent="0.45">
       <c r="A155" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C155" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A156" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A157" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A158" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A156" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C156" s="4" t="s">
+      <c r="C158" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A159" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A160" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A157" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A158" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A159" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A160" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>308</v>
+      <c r="C160" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>7</v>
@@ -7527,209 +6045,209 @@
     </row>
     <row r="161" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A161" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C161" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A163" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A164" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A165" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A162" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C162" s="4" t="s">
+      <c r="C165" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A166" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A163" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B163" s="3" t="s">
+      <c r="C166" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C167" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A168" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A169" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A170" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A171" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A164" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C164" s="3" t="s">
+      <c r="C172" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A173" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A165" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A166" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A167" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A168" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A169" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A170" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A171" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A172" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="221" x14ac:dyDescent="0.45">
-      <c r="A173" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>334</v>
+      <c r="C173" s="3" t="s">
+        <v>348</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>335</v>
+        <v>5</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>512</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" ht="170" x14ac:dyDescent="0.45">
       <c r="A175" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>336</v>
+        <v>5</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>7</v>
@@ -7737,181 +6255,181 @@
     </row>
     <row r="176" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>338</v>
+        <v>5</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>339</v>
+        <v>509</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" ht="136" x14ac:dyDescent="0.45">
       <c r="A177" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>340</v>
+        <v>5</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C177" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="204" x14ac:dyDescent="0.45">
+      <c r="A179" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A180" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+      <c r="A182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A178" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C178" s="3" t="s">
+      <c r="C182" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="221" x14ac:dyDescent="0.45">
+      <c r="A183" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A179" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C179" s="3" t="s">
+      <c r="C183" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A180" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C180" s="3" t="s">
+      <c r="C184" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A181" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C181" s="3" t="s">
+      <c r="C185" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="170" x14ac:dyDescent="0.45">
+      <c r="A186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A182" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C182" s="3" t="s">
+      <c r="C186" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A187" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A183" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C183" s="3" t="s">
+      <c r="C187" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A188" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A184" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A185" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A186" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A187" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A188" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="C188" s="3" t="s">
-        <v>368</v>
+        <v>511</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>7</v>
@@ -7919,13 +6437,13 @@
     </row>
     <row r="189" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A189" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>352</v>
+        <v>5</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>369</v>
+        <v>513</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>7</v>
@@ -7933,69 +6451,67 @@
     </row>
     <row r="190" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>353</v>
+        <v>514</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C190" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A191" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A192" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="119" x14ac:dyDescent="0.45">
+      <c r="A194" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D190" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A191" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A192" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A193" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="409.5" x14ac:dyDescent="0.45">
-      <c r="A194" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>632</v>
-      </c>
       <c r="C194" s="3" t="s">
-        <v>374</v>
+        <v>503</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>7</v>
@@ -8003,13 +6519,13 @@
     </row>
     <row r="195" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A195" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>375</v>
+        <v>5</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>409</v>
+        <v>517</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>7</v>
@@ -8017,13 +6533,13 @@
     </row>
     <row r="196" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>376</v>
+        <v>5</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>7</v>
@@ -8031,10 +6547,10 @@
     </row>
     <row r="197" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A197" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>377</v>
+        <v>5</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>410</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>411</v>
@@ -8045,13 +6561,13 @@
     </row>
     <row r="198" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>378</v>
+        <v>5</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>7</v>
@@ -8059,10 +6575,10 @@
     </row>
     <row r="199" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A199" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>379</v>
+        <v>5</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>415</v>
@@ -8073,13 +6589,13 @@
     </row>
     <row r="200" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>380</v>
+        <v>5</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>416</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>7</v>
@@ -8087,13 +6603,13 @@
     </row>
     <row r="201" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A201" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>381</v>
+        <v>5</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>418</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>7</v>
@@ -8101,13 +6617,13 @@
     </row>
     <row r="202" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>382</v>
+        <v>5</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>7</v>
@@ -8115,13 +6631,13 @@
     </row>
     <row r="203" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A203" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>383</v>
+        <v>5</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>7</v>
@@ -8129,13 +6645,13 @@
     </row>
     <row r="204" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>384</v>
+        <v>5</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>424</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>7</v>
@@ -8143,13 +6659,13 @@
     </row>
     <row r="205" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A205" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>385</v>
+        <v>5</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>7</v>
@@ -8157,13 +6673,13 @@
     </row>
     <row r="206" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>386</v>
+        <v>5</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>7</v>
@@ -8171,13 +6687,13 @@
     </row>
     <row r="207" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A207" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>387</v>
+        <v>5</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>428</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>7</v>
@@ -8185,13 +6701,13 @@
     </row>
     <row r="208" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>388</v>
+        <v>5</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>7</v>
@@ -8199,13 +6715,13 @@
     </row>
     <row r="209" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A209" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>389</v>
+        <v>5</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>7</v>
@@ -8213,13 +6729,13 @@
     </row>
     <row r="210" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>390</v>
+        <v>5</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>7</v>
@@ -8227,13 +6743,13 @@
     </row>
     <row r="211" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A211" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>391</v>
+        <v>5</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>7</v>
@@ -8241,13 +6757,13 @@
     </row>
     <row r="212" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>392</v>
+        <v>5</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>7</v>
@@ -8257,11 +6773,11 @@
       <c r="A213" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>393</v>
+      <c r="B213" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>7</v>
@@ -8271,11 +6787,11 @@
       <c r="A214" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>394</v>
+      <c r="B214" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>7</v>
@@ -8285,11 +6801,11 @@
       <c r="A215" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>395</v>
+      <c r="B215" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>7</v>
@@ -8299,11 +6815,11 @@
       <c r="A216" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>396</v>
+      <c r="B216" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>7</v>
@@ -8313,11 +6829,11 @@
       <c r="A217" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>397</v>
+      <c r="B217" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>7</v>
@@ -8327,11 +6843,11 @@
       <c r="A218" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>398</v>
+      <c r="B218" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>7</v>
@@ -8341,11 +6857,11 @@
       <c r="A219" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>399</v>
+      <c r="B219" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>7</v>
@@ -8355,11 +6871,11 @@
       <c r="A220" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>400</v>
+      <c r="B220" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>7</v>
@@ -8369,11 +6885,11 @@
       <c r="A221" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>401</v>
+      <c r="B221" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>7</v>
@@ -8383,53 +6899,53 @@
       <c r="A222" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>402</v>
+      <c r="B222" s="1" t="s">
+        <v>455</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A223" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>403</v>
+      <c r="B223" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>404</v>
+      <c r="B224" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>577</v>
+        <v>482</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A225" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>405</v>
+      <c r="B225" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>578</v>
+        <v>483</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>7</v>
@@ -8439,11 +6955,11 @@
       <c r="A226" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>406</v>
+      <c r="B226" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>7</v>
@@ -8453,11 +6969,11 @@
       <c r="A227" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>407</v>
+      <c r="B227" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>7</v>
@@ -8467,11 +6983,11 @@
       <c r="A228" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>408</v>
+      <c r="B228" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>7</v>
@@ -8482,10 +6998,10 @@
         <v>5</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>7</v>
@@ -8496,10 +7012,10 @@
         <v>5</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>7</v>
@@ -8510,24 +7026,24 @@
         <v>5</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>7</v>
@@ -8538,10 +7054,10 @@
         <v>5</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>7</v>
@@ -8552,24 +7068,24 @@
         <v>5</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="68" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A235" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>7</v>
@@ -8580,10 +7096,10 @@
         <v>5</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>7</v>
@@ -8594,10 +7110,10 @@
         <v>5</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>7</v>
@@ -8608,10 +7124,10 @@
         <v>5</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>7</v>
@@ -8622,1958 +7138,334 @@
         <v>5</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A240" s="3" t="s">
-        <v>5</v>
+    <row r="240" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A240" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>466</v>
+        <v>375</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>510</v>
+        <v>376</v>
       </c>
       <c r="D240" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A241" s="3" t="s">
-        <v>5</v>
+    <row r="241" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A241" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>511</v>
+        <v>376</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A242" s="3" t="s">
-        <v>5</v>
+    <row r="242" spans="1:4" ht="136" x14ac:dyDescent="0.45">
+      <c r="A242" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>512</v>
+        <v>376</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A243" s="3" t="s">
-        <v>5</v>
+    <row r="243" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A243" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>513</v>
+        <v>394</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A244" s="3" t="s">
-        <v>5</v>
+      <c r="A244" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>471</v>
+        <v>381</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>514</v>
+        <v>380</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A245" s="3" t="s">
-        <v>5</v>
+    <row r="245" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A245" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>472</v>
+        <v>382</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>515</v>
+        <v>380</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A246" s="3" t="s">
-        <v>5</v>
+    <row r="246" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A246" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>516</v>
+        <v>384</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A247" s="3" t="s">
-        <v>5</v>
+    <row r="247" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A247" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>474</v>
+        <v>385</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>517</v>
+        <v>384</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A248" s="3" t="s">
-        <v>5</v>
+    <row r="248" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A248" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>518</v>
+        <v>384</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A249" s="3" t="s">
-        <v>5</v>
+    <row r="249" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A249" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>519</v>
+        <v>384</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A250" s="3" t="s">
-        <v>5</v>
+    <row r="250" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A250" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>520</v>
+        <v>388</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A251" s="3" t="s">
-        <v>5</v>
+    <row r="251" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A251" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>523</v>
+        <v>389</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>521</v>
+        <v>388</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A252" s="3" t="s">
-        <v>5</v>
+      <c r="A252" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>522</v>
+        <v>393</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A253" s="3" t="s">
-        <v>5</v>
+    <row r="253" spans="1:4" ht="102" x14ac:dyDescent="0.45">
+      <c r="A253" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>479</v>
+        <v>392</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A254" s="3" t="s">
-        <v>5</v>
+        <v>393</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A254" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>525</v>
+        <v>396</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A255" s="3" t="s">
-        <v>5</v>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A255" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>526</v>
+        <v>397</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A256" s="3" t="s">
-        <v>5</v>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A256" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>528</v>
+        <v>398</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A257" s="3" t="s">
-        <v>5</v>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A257" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>529</v>
+        <v>399</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A258" s="3" t="s">
-        <v>5</v>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A258" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>530</v>
+        <v>400</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A259" s="3" t="s">
-        <v>5</v>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A259" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>531</v>
+        <v>401</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="D259" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A260" s="3" t="s">
-        <v>5</v>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A260" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>532</v>
+        <v>402</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A261" s="3" t="s">
-        <v>5</v>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A261" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>533</v>
+        <v>405</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A262" s="3" t="s">
-        <v>5</v>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A262" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>534</v>
+        <v>406</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A263" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A264" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A265" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A266" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A267" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A268" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A269" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A270" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A271" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A272" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A273" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A274" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A275" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="153" x14ac:dyDescent="0.45">
-      <c r="A276" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="153" x14ac:dyDescent="0.45">
-      <c r="A277" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A278" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A279" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A280" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="289" x14ac:dyDescent="0.45">
-      <c r="A281" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A282" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A283" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A284" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="153" x14ac:dyDescent="0.45">
-      <c r="A285" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A286" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A287" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A288" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A289" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C289" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="68" x14ac:dyDescent="0.45">
-      <c r="A290" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A291" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="119" x14ac:dyDescent="0.45">
-      <c r="A292" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A293" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A294" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A295" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C295" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A296" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C296" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A297" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C297" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A298" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A299" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C299" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A300" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A301" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A302" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A303" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C303" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A304" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A305" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A306" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A307" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A308" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C308" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A309" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A310" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C310" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A311" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A312" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A313" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A314" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A315" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A316" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A317" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A318" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A319" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A320" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A321" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C321" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A322" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C322" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A323" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A324" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A325" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C325" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A326" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C326" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A327" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C327" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A328" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A329" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A330" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A331" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C331" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A332" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C332" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A333" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="C333" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A334" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A335" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="C335" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A336" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C336" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A337" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C337" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A338" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C338" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A339" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A340" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A341" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A342" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A343" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A344" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A345" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A346" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" ht="136" x14ac:dyDescent="0.45">
-      <c r="A347" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C347" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A348" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C348" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A349" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A350" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C350" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A351" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A352" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C352" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A353" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A354" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C354" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A355" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A356" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A357" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A358" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A359" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A360" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A361" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A362" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A363" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A364" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A365" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" ht="102" x14ac:dyDescent="0.45">
-      <c r="A366" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A367" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A368" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A369" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A370" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A371" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A372" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A373" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A374" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A375" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A376" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A377" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A378" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D378" s="3" t="s">
         <v>7</v>
       </c>
     </row>
